--- a/media/write_sheets/write.xlsx
+++ b/media/write_sheets/write.xlsx
@@ -555,32 +555,32 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>20:48:41</t>
+          <t>05:24:31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>21:00:59</t>
+          <t>05:34:10</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>06:53:40</t>
+          <t>05:40:51</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>06:57:50</t>
+          <t>05:42:27</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21:13:13</t>
+          <t>05:46:04</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>21:16:23</t>
+          <t>07:41:17</t>
         </is>
       </c>
     </row>
@@ -592,32 +592,32 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20:52:16</t>
+          <t>05:25:19</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>21:03:34</t>
+          <t>05:35:40</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>06:54:33</t>
+          <t>05:41:48</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>06:59:02</t>
+          <t>05:43:25</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>21:14:42</t>
+          <t>05:59:27</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>21:18:57</t>
+          <t>07:43:33</t>
         </is>
       </c>
     </row>
@@ -629,32 +629,32 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>26/03/2022</t>
+          <t>17/08/2022</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>26/03/2022</t>
+          <t>17/08/2022</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>29/03/2022</t>
+          <t>17/08/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>29/03/2022</t>
+          <t>17/08/2022</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>02/08/2022</t>
+          <t>17/08/2022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>02/08/2022</t>
+          <t>17/08/2022</t>
         </is>
       </c>
     </row>
@@ -679,32 +679,32 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>fd</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>roman</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>roman</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>fg</t>
+          <t>hello</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>fd</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>34334</t>
+          <t>vlady</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>vlady</t>
         </is>
       </c>
     </row>
@@ -724,32 +724,32 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>df</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>matvee</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>vladislav</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>jakfl</t>
+          <t>world</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>432345</t>
+          <t>fd</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>fd</t>
+          <t>slav</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>slav</t>
         </is>
       </c>
     </row>
@@ -769,32 +769,32 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>12/12/1111</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>12/12/1111</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>12/12/1998</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>12/12/1998</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1/11/1111</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>12/12/2000</t>
+          <t>12/12/1111</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>12/12/1198</t>
+          <t>11/11/1992</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>12/12/1111</t>
+          <t>12/12/2022</t>
         </is>
       </c>
     </row>
@@ -814,32 +814,32 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>fd\</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>male</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>jklgsd</t>
+          <t>male</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>3243</t>
+          <t>male</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>male</t>
         </is>
       </c>
     </row>
@@ -859,32 +859,32 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>432423434</t>
+          <t>3243243243</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>412423</t>
+          <t>543523453452</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>qjeijfsf</t>
+          <t>4r5438543</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>324 2354324</t>
+          <t>525534</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>4543</t>
+          <t>1726393453</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>43k</t>
+          <t>17236191213</t>
         </is>
       </c>
     </row>
@@ -904,32 +904,32 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>13423143</t>
+          <t>Fishers</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>432143243</t>
+          <t>Memphis</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>gjklwejrwert</t>
+          <t>Las Vegas</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Boston</t>
+          <t>Las Vegas</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Las Vegas</t>
         </is>
       </c>
     </row>
@@ -952,22 +952,22 @@
           <t>A</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
       <c r="H13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -982,12 +982,7 @@
           <t>B</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -1012,6 +1007,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1032,11 +1032,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>A</t>
@@ -1057,7 +1052,7 @@
           <t>B</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -1072,11 +1067,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1087,6 +1077,21 @@
           <t>D</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1107,12 +1112,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1127,6 +1127,11 @@
           <t>G</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1157,17 +1162,7 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
       <c r="I25" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1182,6 +1177,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1202,6 +1202,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1212,16 +1217,6 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1247,6 +1242,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1267,21 +1272,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1307,11 +1297,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1322,7 +1307,7 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -1347,19 +1332,14 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>re</t>
-        </is>
-      </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>eew</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -1377,11 +1357,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
       <c r="I37" t="inlineStr">
         <is>
           <t>A</t>
@@ -1417,7 +1392,12 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1432,11 +1412,6 @@
           <t>B</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1447,11 +1422,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1477,11 +1447,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
       <c r="I43" t="inlineStr">
         <is>
           <t>A</t>
@@ -1517,11 +1482,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
       <c r="I45" t="inlineStr">
         <is>
           <t>A</t>
@@ -1557,6 +1517,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1567,7 +1532,7 @@
           <t>B</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -1582,16 +1547,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1607,11 +1562,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
       <c r="I50" t="inlineStr">
         <is>
           <t>A</t>
@@ -1647,11 +1597,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
       <c r="I52" t="inlineStr">
         <is>
           <t>A</t>
@@ -1687,7 +1632,7 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1707,11 +1652,6 @@
           <t>B</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1727,11 +1667,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
       <c r="I56" t="inlineStr">
         <is>
           <t>A</t>
@@ -1767,16 +1702,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
       <c r="J58" t="inlineStr">
         <is>
           <t>A</t>
@@ -1792,6 +1717,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1807,11 +1737,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
       <c r="I60" t="inlineStr">
         <is>
           <t>A</t>
@@ -1847,7 +1772,7 @@
           <t>A</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1862,12 +1787,7 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -1892,7 +1812,7 @@
           <t>A</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1922,7 +1842,7 @@
           <t>A</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1952,7 +1872,7 @@
           <t>A</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1982,7 +1902,7 @@
           <t>A</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -2012,9 +1932,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>null</t>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2032,6 +1952,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2052,11 +1977,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2082,7 +2002,7 @@
           <t>A</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -2112,11 +2032,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2127,6 +2042,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2142,11 +2062,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2157,6 +2072,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2192,6 +2112,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2202,11 +2127,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2222,7 +2142,7 @@
           <t>A</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -2252,7 +2172,7 @@
           <t>A</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -2282,7 +2202,7 @@
           <t>A</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -2312,7 +2232,7 @@
           <t>A</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -2357,11 +2277,6 @@
           <t>B</t>
         </is>
       </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2377,11 +2292,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2467,11 +2377,6 @@
           <t>G</t>
         </is>
       </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2507,11 +2412,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2557,11 +2457,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -2577,11 +2472,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -2617,11 +2507,6 @@
           <t>B</t>
         </is>
       </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -2647,11 +2532,6 @@
           <t>B</t>
         </is>
       </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -2677,11 +2557,6 @@
           <t>B</t>
         </is>
       </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -2697,11 +2572,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -2727,11 +2597,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -2757,11 +2622,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -2787,11 +2647,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -2817,11 +2672,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -2852,6 +2702,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -2877,6 +2742,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -2922,6 +2802,21 @@
           <t>C</t>
         </is>
       </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -2947,6 +2842,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -2972,6 +2882,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -3017,6 +2942,21 @@
           <t>C</t>
         </is>
       </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -3417,6 +3357,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -3427,16 +3372,6 @@
           <t>B</t>
         </is>
       </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -3462,12 +3397,7 @@
           <t>B</t>
         </is>
       </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H179" t="inlineStr">
+      <c r="F179" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -3487,7 +3417,7 @@
           <t>A</t>
         </is>
       </c>
-      <c r="G180" t="inlineStr">
+      <c r="F180" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -3502,11 +3432,6 @@
           <t>B</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -3522,7 +3447,7 @@
           <t>A</t>
         </is>
       </c>
-      <c r="G182" t="inlineStr">
+      <c r="F182" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -3537,11 +3462,6 @@
           <t>B</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -3567,12 +3487,7 @@
           <t>B</t>
         </is>
       </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H185" t="inlineStr">
+      <c r="F185" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -3592,6 +3507,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -3602,16 +3522,6 @@
           <t>B</t>
         </is>
       </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -3627,6 +3537,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -3637,16 +3552,6 @@
           <t>B</t>
         </is>
       </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -3667,6 +3572,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -3692,6 +3602,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -3727,6 +3642,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -3742,6 +3662,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -3767,6 +3692,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -3802,6 +3732,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -3817,6 +3752,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -3838,6 +3778,11 @@
         </is>
       </c>
       <c r="D204" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
         <is>
           <t>A</t>
         </is>

--- a/media/write_sheets/write.xlsx
+++ b/media/write_sheets/write.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J245"/>
+  <dimension ref="A1:K245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,6 +472,11 @@
           <t>6</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="C2" t="inlineStr">
@@ -509,6 +514,11 @@
           <t>Code 6</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Code 7</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="C3" t="inlineStr">
@@ -546,6 +556,11 @@
           <t>usename 6</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>usename 7</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="C4" t="inlineStr">
@@ -583,6 +598,11 @@
           <t>07:41:17</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>21:10:53</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="C5" t="inlineStr">
@@ -620,6 +640,11 @@
           <t>07:43:33</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>21:12:18</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="C6" t="inlineStr">
@@ -653,6 +678,11 @@
         </is>
       </c>
       <c r="J6" t="inlineStr">
+        <is>
+          <t>17/08/2022</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>17/08/2022</t>
         </is>
@@ -707,6 +737,11 @@
           <t>vlady</t>
         </is>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>fd</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -752,6 +787,11 @@
           <t>slav</t>
         </is>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>kfdk</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -797,6 +837,11 @@
           <t>12/12/2022</t>
         </is>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>12/12/1111</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -842,6 +887,11 @@
           <t>male</t>
         </is>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>amle</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -887,6 +937,11 @@
           <t>17236191213</t>
         </is>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>421432</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -932,6 +987,11 @@
           <t>Las Vegas</t>
         </is>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>North Las Vegas</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -972,6 +1032,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1042,6 +1107,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1167,6 +1237,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1217,6 +1292,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1272,6 +1352,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1317,6 +1402,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1342,6 +1432,11 @@
           <t>23</t>
         </is>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>fd</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1367,6 +1462,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1412,6 +1512,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1457,6 +1562,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1492,6 +1602,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1522,6 +1637,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1572,6 +1692,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1607,6 +1732,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1642,6 +1772,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1677,6 +1812,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1707,6 +1847,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1747,6 +1892,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1773,6 +1923,11 @@
         </is>
       </c>
       <c r="I62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
         <is>
           <t>A</t>
         </is>

--- a/media/write_sheets/write.xlsx
+++ b/media/write_sheets/write.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J245"/>
+  <dimension ref="A1:K245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,6 +472,11 @@
           <t>6</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="C2" t="inlineStr">
@@ -509,6 +514,11 @@
           <t>Code 6</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Code 7</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="C3" t="inlineStr">
@@ -546,6 +556,11 @@
           <t>usename 6</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>usename 7</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="C4" t="inlineStr">
@@ -583,6 +598,11 @@
           <t>07:41:17</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>08:07:18</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="C5" t="inlineStr">
@@ -620,6 +640,11 @@
           <t>07:43:33</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>23:09:56</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="C6" t="inlineStr">
@@ -653,6 +678,11 @@
         </is>
       </c>
       <c r="J6" t="inlineStr">
+        <is>
+          <t>17/08/2022</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>17/08/2022</t>
         </is>
@@ -707,6 +737,11 @@
           <t>vlady</t>
         </is>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>hola</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -752,6 +787,11 @@
           <t>slav</t>
         </is>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>mem</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -797,6 +837,11 @@
           <t>12/12/2022</t>
         </is>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>12/12/1111</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -842,6 +887,11 @@
           <t>male</t>
         </is>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -887,6 +937,11 @@
           <t>17236191213</t>
         </is>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>523345</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -932,6 +987,11 @@
           <t>Las Vegas</t>
         </is>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Edinburg</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -972,6 +1032,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1042,6 +1107,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1067,6 +1137,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1167,6 +1242,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1217,6 +1297,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1252,6 +1337,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1317,6 +1407,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1342,6 +1437,11 @@
           <t>23</t>
         </is>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>erw</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1367,6 +1467,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1412,6 +1517,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1457,6 +1567,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1492,6 +1607,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1537,6 +1657,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1572,6 +1697,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1607,6 +1737,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1642,6 +1777,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1677,6 +1817,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1707,6 +1852,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1747,6 +1897,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1777,6 +1932,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2267,6 +2427,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2292,6 +2457,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2337,6 +2507,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2412,6 +2587,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2447,6 +2627,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -2472,6 +2657,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -2497,6 +2687,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -2522,6 +2717,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -2547,6 +2747,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -2572,6 +2777,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -2597,6 +2807,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -2622,6 +2837,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -2647,6 +2867,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -2668,6 +2893,11 @@
         </is>
       </c>
       <c r="D129" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
         <is>
           <t>A</t>
         </is>

--- a/media/write_sheets/write.xlsx
+++ b/media/write_sheets/write.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K245"/>
+  <dimension ref="A1:E245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,36 +447,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="C2" t="inlineStr">
@@ -489,36 +459,6 @@
           <t>Code 1</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Code 2</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Code 3</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Code 4</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Code 5</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Code 6</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Code 7</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="C3" t="inlineStr">
@@ -531,36 +471,6 @@
           <t>usename 1</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>usename 2</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>usename 3</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>usename 4</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>usename 5</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>usename 6</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>usename 7</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="C4" t="inlineStr">
@@ -570,37 +480,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>05:24:31</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>05:34:10</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>05:40:51</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>05:42:27</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>05:46:04</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>07:41:17</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>21:10:53</t>
+          <t>00:35:48</t>
         </is>
       </c>
     </row>
@@ -612,37 +492,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>05:25:19</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>05:35:40</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>05:41:48</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>05:43:25</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>05:59:27</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>07:43:33</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>21:12:18</t>
+          <t>00:36:34</t>
         </is>
       </c>
     </row>
@@ -654,37 +504,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>17/08/2022</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>17/08/2022</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>17/08/2022</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>17/08/2022</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>17/08/2022</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>17/08/2022</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>17/08/2022</t>
+          <t>18/08/2022</t>
         </is>
       </c>
     </row>
@@ -709,37 +529,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fd</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>roman</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>hello</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>fd</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>vlady</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>vlady</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>fd</t>
+          <t>fds</t>
         </is>
       </c>
     </row>
@@ -759,37 +549,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>df</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>matvee</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>world</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
           <t>fd</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>slav</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>slav</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>kfdk</t>
         </is>
       </c>
     </row>
@@ -809,37 +569,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12/12/1111</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>12/12/1111</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>12/12/1998</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>12/12/1111</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>11/11/1992</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>12/12/2022</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>12/12/1111</t>
+          <t>12/12/1990</t>
         </is>
       </c>
     </row>
@@ -859,37 +589,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fd\</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
           <t>male</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>amle</t>
         </is>
       </c>
     </row>
@@ -909,37 +609,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3243243243</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>543523453452</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>4r5438543</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>525534</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1726393453</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>17236191213</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>421432</t>
+          <t>5234532</t>
         </is>
       </c>
     </row>
@@ -959,37 +629,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Fishers</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Memphis</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Las Vegas</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
           <t>Washington</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Las Vegas</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Las Vegas</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>North Las Vegas</t>
         </is>
       </c>
     </row>
@@ -1012,27 +652,7 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1047,11 +667,6 @@
           <t>B</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1072,11 +687,6 @@
           <t>D</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1097,21 +707,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1122,11 +717,6 @@
           <t>B</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1152,16 +742,6 @@
           <t>D</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1182,11 +762,6 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1197,11 +772,6 @@
           <t>G</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1232,16 +802,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1252,11 +812,6 @@
           <t>B</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1272,16 +827,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1292,11 +837,6 @@
           <t>B</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1322,16 +862,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1352,11 +882,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1392,21 +917,6 @@
           <t>B</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1422,21 +932,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>fd</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1452,21 +947,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1492,16 +972,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1512,11 +982,6 @@
           <t>B</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1552,21 +1017,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1592,21 +1042,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1632,16 +1067,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1652,11 +1077,6 @@
           <t>B</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1682,21 +1102,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1722,21 +1127,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1762,21 +1152,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1802,21 +1177,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1842,16 +1202,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1862,11 +1212,6 @@
           <t>B</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1882,21 +1227,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1922,16 +1252,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1942,11 +1262,6 @@
           <t>B</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1967,11 +1282,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1997,11 +1307,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2027,11 +1332,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2057,11 +1357,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2087,11 +1382,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2107,11 +1397,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2157,11 +1442,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2197,11 +1477,6 @@
           <t>B</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2227,11 +1502,6 @@
           <t>B</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2267,11 +1537,6 @@
           <t>B</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2297,11 +1562,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2327,11 +1587,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2357,11 +1612,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2387,11 +1637,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2862,16 +2107,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -2902,16 +2137,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -2962,16 +2187,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -3002,16 +2217,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -3042,16 +2247,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -3102,16 +2297,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -3512,11 +2697,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -3552,11 +2732,6 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -3572,11 +2747,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -3602,11 +2772,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -3642,11 +2807,6 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -3662,11 +2822,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -3692,11 +2847,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -3727,11 +2877,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -3757,11 +2902,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -3797,11 +2937,6 @@
           <t>B</t>
         </is>
       </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -3817,11 +2952,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -3847,11 +2977,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -3887,11 +3012,6 @@
           <t>B</t>
         </is>
       </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -3907,11 +3027,6 @@
           <t>A</t>
         </is>
       </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -3933,11 +3048,6 @@
         </is>
       </c>
       <c r="D204" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G204" t="inlineStr">
         <is>
           <t>A</t>
         </is>

--- a/media/write_sheets/write.xlsx
+++ b/media/write_sheets/write.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E245"/>
+  <dimension ref="A1:G245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="C2" t="inlineStr">
@@ -459,6 +469,16 @@
           <t>Code 1</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Code 2</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Code 3</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="C3" t="inlineStr">
@@ -471,6 +491,16 @@
           <t>usename 1</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>usename 2</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>usename 3</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="C4" t="inlineStr">
@@ -483,6 +513,16 @@
           <t>00:35:48</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>02:04:09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>02:06:17</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="C5" t="inlineStr">
@@ -495,6 +535,16 @@
           <t>00:36:34</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>02:05:47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>02:07:02</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="C6" t="inlineStr">
@@ -503,6 +553,16 @@
         </is>
       </c>
       <c r="E6" t="inlineStr">
+        <is>
+          <t>18/08/2022</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>18/08/2022</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>18/08/2022</t>
         </is>
@@ -532,6 +592,16 @@
           <t>fds</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>tr</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -552,6 +622,16 @@
           <t>fd</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>e43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -572,6 +652,16 @@
           <t>12/12/1990</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>12/12/1990</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>12/12/1111</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -592,6 +682,16 @@
           <t>male</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>re</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -612,6 +712,16 @@
           <t>5234532</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>523453</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -632,6 +742,16 @@
           <t>Washington</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -667,6 +787,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -677,6 +802,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -727,6 +857,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -762,6 +897,11 @@
           <t>F</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1667,6 +1807,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -1692,6 +1837,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -1777,6 +1927,11 @@
           <t>G</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -1812,6 +1967,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -1847,6 +2007,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -1872,6 +2037,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -1897,6 +2067,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -1922,6 +2097,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -1947,6 +2127,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -1972,6 +2157,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -1997,6 +2187,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -2022,6 +2217,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -2047,6 +2247,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -2072,6 +2277,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -2697,6 +2907,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -2722,6 +2937,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -2747,6 +2967,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -2782,6 +3007,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -2807,6 +3037,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -2832,6 +3067,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -2853,6 +3093,11 @@
         <v>183</v>
       </c>
       <c r="D189" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
         <is>
           <t>B</t>
         </is>
